--- a/AndyTEST/Libs/ComplexScenariosChecklist.xlsx
+++ b/AndyTEST/Libs/ComplexScenariosChecklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="210" yWindow="-45" windowWidth="14835" windowHeight="13980" tabRatio="595"/>
@@ -1824,914 +1824,917 @@
     <t>175.</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1001</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1002</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1003</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1004</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1005</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1006</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1007</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1008</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1009</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1010</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1011</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1012</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1013</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1014</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1015</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1016</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1017</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1018</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1019</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1020</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1021</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1022</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1023</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1024</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1025</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1026</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1027</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1028</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1029</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1030</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1031</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1032</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1034</t>
-  </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1035</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1035</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1034</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1033</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1032</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1031</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1030</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1029</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1028</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1027</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1026</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1025</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1024</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1023</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1022</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1021</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1020</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1019</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1018</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1017</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1016</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1015</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1014</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1013</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1012</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1011</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1010</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1009</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1008</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1007</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1006</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1005</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1004</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1003</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1002</t>
-  </si>
-  <si>
     <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1001</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1002</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1003</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1004</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1005</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1006</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1007</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1008</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1009</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1010</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1011</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1012</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1013</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1014</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1015</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1016</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1017</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1018</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1019</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1020</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1021</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1022</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1023</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1024</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1025</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1026</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1027</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1028</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1029</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1030</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1031</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1032</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1033</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1034</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1035</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1001</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1002</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1003</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1004</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1005</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1006</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1007</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1008</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1009</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1010</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1011</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1012</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1013</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1014</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1015</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1016</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1017</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1018</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1019</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1020</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1021</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1022</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1023</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1024</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1025</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1026</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1027</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1028</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1029</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1030</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1031</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1032</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1033</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1034</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1035</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1001</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
   </si>
   <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1001</t>
   </si>
   <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1001</t>
   </si>
   <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1001</t>
   </si>
   <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1001</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
   </si>
   <si>
-    <t>SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
   </si>
   <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
-  </si>
-  <si>
-    <t>SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
-  </si>
-  <si>
-    <t>SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
-  </si>
-  <si>
-    <t>SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
-  </si>
-  <si>
-    <t>SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
-ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2739,7 +2742,7 @@
 WHERE Airlines.flightNumber = 1001</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2747,7 +2750,7 @@
 WHERE Airlines.flightNumber = 1002</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2755,7 +2758,7 @@
 WHERE Airlines.flightNumber = 1003</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2763,7 +2766,7 @@
 WHERE Airlines.flightNumber = 1004</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2771,7 +2774,15 @@
 WHERE Airlines.flightNumber = 1005</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDBSELECT priorityBoarding, webRegistration FROM Airports 
+INNER JOIN Flights 
+ON Airports.airportNumber = Flights.airportNumber
+INNER JOIN  Airlines
+ON Flights.flightNumber = Airlines.flightNumber
+WHERE Airlines.flightNumber = 1007</t>
+  </si>
+  <si>
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2779,15 +2790,7 @@
 WHERE Airlines.flightNumber = 1006</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
-INNER JOIN Flights 
-ON Airports.airportNumber = Flights.airportNumber
-INNER JOIN  Airlines
-ON Flights.flightNumber = Airlines.flightNumber
-WHERE Airlines.flightNumber = 1007</t>
-  </si>
-  <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2795,7 +2798,7 @@
 WHERE Airlines.flightNumber = 1008</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2803,7 +2806,7 @@
 WHERE Airlines.flightNumber = 1009</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2811,7 +2814,7 @@
 WHERE Airlines.flightNumber = 1010</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2819,7 +2822,7 @@
 WHERE Airlines.flightNumber = 1011</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2827,7 +2830,7 @@
 WHERE Airlines.flightNumber = 1012</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2835,7 +2838,7 @@
 WHERE Airlines.flightNumber = 1013</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2843,7 +2846,7 @@
 WHERE Airlines.flightNumber = 1014</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2851,7 +2854,7 @@
 WHERE Airlines.flightNumber = 1015</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2859,7 +2862,7 @@
 WHERE Airlines.flightNumber = 1016</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2867,7 +2870,7 @@
 WHERE Airlines.flightNumber = 1017</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2875,7 +2878,7 @@
 WHERE Airlines.flightNumber = 1018</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2883,7 +2886,7 @@
 WHERE Airlines.flightNumber = 1019</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2891,7 +2894,7 @@
 WHERE Airlines.flightNumber = 1020</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2899,7 +2902,7 @@
 WHERE Airlines.flightNumber = 1021</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2907,7 +2910,7 @@
 WHERE Airlines.flightNumber = 1022</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2915,7 +2918,7 @@
 WHERE Airlines.flightNumber = 1023</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2923,7 +2926,7 @@
 WHERE Airlines.flightNumber = 1024</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2931,7 +2934,7 @@
 WHERE Airlines.flightNumber = 1025</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2939,7 +2942,7 @@
 WHERE Airlines.flightNumber = 1026</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2947,7 +2950,7 @@
 WHERE Airlines.flightNumber = 1027</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2955,7 +2958,7 @@
 WHERE Airlines.flightNumber = 1028</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2963,7 +2966,7 @@
 WHERE Airlines.flightNumber = 1029</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2971,7 +2974,7 @@
 WHERE Airlines.flightNumber = 1030</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2979,7 +2982,7 @@
 WHERE Airlines.flightNumber = 1031</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2987,7 +2990,7 @@
 WHERE Airlines.flightNumber = 1032</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2995,7 +2998,7 @@
 WHERE Airlines.flightNumber = 1033</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -3003,22 +3006,19 @@
 WHERE Airlines.flightNumber = 1034</t>
   </si>
   <si>
-    <t>SELECT priorityBoarding, webRegistration FROM Airports 
+    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
 ON Flights.flightNumber = Airlines.flightNumber
 WHERE Airlines.flightNumber = 1035</t>
   </si>
-  <si>
-    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1033</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="282" x14ac:knownFonts="1">
+  <fonts count="247" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4260,183 +4260,8 @@
       <color indexed="17"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="283">
+  <fills count="248">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5674,183 +5499,8 @@
         <fgColor rgb="FF00FF80"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF00FF80"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5873,11 +5523,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5897,307 +5556,768 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="136" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="137" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="138" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="139" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="140" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="141" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="142" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="143" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="144" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="145" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="146" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="147" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="148" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="149" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="150" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="151" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="152" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="153" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="154" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="155" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="156" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="157" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="158" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="159" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="160" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="161" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="166" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="170" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="171" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="174" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="175" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="176" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="177" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="178" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="179" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="180" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="181" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="182" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="183" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="184" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="185" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="186" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="187" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="188" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="189" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="190" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="191" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="192" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="193" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="194" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="195" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="196" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="197" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="198" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="199" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="200" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="201" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="202" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="203" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="204" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="205" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="206" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="207" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="208" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="209" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="210" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="211" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="212" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="213" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="214" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="215" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="216" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="217" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="218" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="219" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="220" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="221" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="222" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="223" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="224" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="225" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="226" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="227" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="228" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="229" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="230" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="231" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="232" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="233" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="234" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="235" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="236" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="237" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="238" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="239" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="240" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="241" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="242" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="243" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="244" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="245" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="246" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="247" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="52" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="53" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="54" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="55" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="57" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="58" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="59" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="60" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="61" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="62" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="63" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="64" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="65" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="66" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="67" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="68" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="69" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="70" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="71" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="72" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="73" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="74" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="75" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="76" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="77" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="78" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="79" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="80" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="81" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="82" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="83" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="84" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="85" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="86" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="87" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="88" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="89" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="90" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="91" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="92" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="93" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="94" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="95" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="96" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="97" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="98" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="99" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="100" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="101" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="102" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="103" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="104" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="105" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="106" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="107" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="108" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="109" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="110" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="111" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="112" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="113" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="114" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="115" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="116" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="117" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="118" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="119" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="120" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="121" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="122" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="123" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="124" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="125" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="126" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="127" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="128" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="129" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="130" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="131" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="132" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="133" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="134" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="135" fillId="136" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="136" fillId="137" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="137" fillId="138" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="138" fillId="139" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="139" fillId="140" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="140" fillId="141" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="141" fillId="142" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="142" fillId="143" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="143" fillId="144" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="144" fillId="145" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="145" fillId="146" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="146" fillId="147" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="147" fillId="148" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="148" fillId="149" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="149" fillId="150" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="150" fillId="151" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="151" fillId="152" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="152" fillId="153" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="153" fillId="154" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="154" fillId="155" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="155" fillId="156" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="156" fillId="157" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="157" fillId="158" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="158" fillId="159" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="159" fillId="160" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="160" fillId="161" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="161" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="162" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="163" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="164" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="165" fillId="166" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="166" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="167" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="168" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="169" fillId="170" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="170" fillId="171" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="171" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="172" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="173" fillId="174" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="174" fillId="175" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="175" fillId="176" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="176" fillId="177" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="177" fillId="178" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="178" fillId="179" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="179" fillId="180" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="180" fillId="181" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="181" fillId="182" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="182" fillId="183" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="183" fillId="184" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="184" fillId="185" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="185" fillId="186" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="186" fillId="187" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="187" fillId="188" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="188" fillId="189" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="189" fillId="190" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="190" fillId="191" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="191" fillId="192" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="192" fillId="193" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="193" fillId="194" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="194" fillId="195" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="195" fillId="196" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="196" fillId="197" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="197" fillId="198" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="198" fillId="199" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="199" fillId="200" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="200" fillId="201" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="201" fillId="202" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="202" fillId="203" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="203" fillId="204" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="204" fillId="205" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="205" fillId="206" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="206" fillId="207" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="207" fillId="208" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="208" fillId="209" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="209" fillId="210" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="210" fillId="211" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="211" fillId="212" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="212" fillId="213" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="213" fillId="214" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="214" fillId="215" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="215" fillId="216" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="216" fillId="217" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="217" fillId="218" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="218" fillId="219" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="219" fillId="220" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="220" fillId="221" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="221" fillId="222" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="222" fillId="223" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="223" fillId="224" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="224" fillId="225" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="225" fillId="226" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="226" fillId="227" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="227" fillId="228" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="228" fillId="229" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="229" fillId="230" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="230" fillId="231" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="231" fillId="232" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="232" fillId="233" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="233" fillId="234" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="234" fillId="235" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="235" fillId="236" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="236" fillId="237" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="237" fillId="238" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="238" fillId="239" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="239" fillId="240" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="240" fillId="241" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="241" fillId="242" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="242" fillId="243" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="243" fillId="244" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="244" fillId="245" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="245" fillId="246" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="246" fillId="247" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="247" fillId="248" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="248" fillId="249" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="249" fillId="250" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="250" fillId="251" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="251" fillId="252" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="252" fillId="253" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="253" fillId="254" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="254" fillId="255" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="255" fillId="256" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="256" fillId="257" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="257" fillId="258" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="258" fillId="259" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="259" fillId="260" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="260" fillId="261" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="261" fillId="262" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="262" fillId="263" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="263" fillId="264" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="264" fillId="265" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="265" fillId="266" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="266" fillId="267" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="267" fillId="268" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="268" fillId="269" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="269" fillId="270" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="270" fillId="271" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="271" fillId="272" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="272" fillId="273" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="273" fillId="274" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="274" fillId="275" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="275" fillId="276" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="276" fillId="277" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="277" fillId="278" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="278" fillId="279" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="279" fillId="280" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="280" fillId="281" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="281" fillId="282" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6258,7 +6378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6293,7 +6413,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6504,37 +6624,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55.7109375" style="11" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.85546875" style="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" style="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.7109375" style="11" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.75" style="11" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.875" style="11" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.125" style="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.75" style="11" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.75" style="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6546,13 +6666,13 @@
         <v>210</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>670</v>
+        <v>602</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>286</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="14"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6568,7 +6688,7 @@
         <v>286</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="15"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -6584,7 +6704,7 @@
         <v>286</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -6600,7 +6720,7 @@
         <v>286</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -6616,7 +6736,7 @@
         <v>287</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -6632,7 +6752,7 @@
         <v>287</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="19"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -6648,7 +6768,7 @@
         <v>287</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -6664,7 +6784,7 @@
         <v>287</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -6680,7 +6800,7 @@
         <v>287</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -6696,7 +6816,7 @@
         <v>287</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="23"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -6712,7 +6832,7 @@
         <v>288</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="24"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -6728,7 +6848,7 @@
         <v>288</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -6744,7 +6864,7 @@
         <v>288</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="26"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -6760,7 +6880,7 @@
         <v>289</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="27"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -6776,7 +6896,7 @@
         <v>289</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -6792,7 +6912,7 @@
         <v>290</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="29"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -6808,7 +6928,7 @@
         <v>290</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="30"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -6824,7 +6944,7 @@
         <v>290</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="31"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -6840,7 +6960,7 @@
         <v>291</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="32"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -6856,7 +6976,7 @@
         <v>291</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="33"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -6872,7 +6992,7 @@
         <v>291</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="34"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -6888,7 +7008,7 @@
         <v>291</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="35"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -6904,7 +7024,7 @@
         <v>292</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="36"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -6920,7 +7040,7 @@
         <v>292</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="37"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -6936,7 +7056,7 @@
         <v>293</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="38"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -6952,7 +7072,7 @@
         <v>294</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="39"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -6968,7 +7088,7 @@
         <v>294</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="40"/>
+      <c r="F28" s="38"/>
     </row>
     <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -6984,7 +7104,7 @@
         <v>294</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="41"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -7000,7 +7120,7 @@
         <v>295</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="42"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -7016,7 +7136,7 @@
         <v>296</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="43"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -7032,7 +7152,7 @@
         <v>297</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="44"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -7048,7 +7168,7 @@
         <v>298</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="45"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -7058,13 +7178,13 @@
         <v>242</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>881</v>
+        <v>634</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>299</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="46"/>
+      <c r="F34" s="44"/>
     </row>
     <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -7074,13 +7194,13 @@
         <v>243</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>299</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="47"/>
+      <c r="F35" s="45"/>
     </row>
     <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -7090,573 +7210,573 @@
         <v>244</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>300</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="48"/>
+      <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="49"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="50"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="48"/>
     </row>
     <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="51"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="49"/>
     </row>
     <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="52"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="50"/>
     </row>
     <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="53"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="51"/>
     </row>
     <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="54"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="52"/>
     </row>
     <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="55"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="56"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="57"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="C46" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="58"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="56"/>
     </row>
     <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="59"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="57"/>
     </row>
     <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="C48" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="60"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="58"/>
     </row>
     <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="61"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="59"/>
     </row>
     <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="62"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="60"/>
     </row>
     <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="63"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="61"/>
     </row>
     <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="64"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="62"/>
     </row>
     <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="D53" s="7" t="s">
+      <c r="C53" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="65"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="63"/>
     </row>
     <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="66"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="64"/>
     </row>
     <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="C55" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="67"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="65"/>
     </row>
     <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="68"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="66"/>
     </row>
     <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="C57" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="69"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="67"/>
     </row>
     <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="D58" s="7" t="s">
+      <c r="C58" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="70"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="68"/>
     </row>
     <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="D59" s="7" t="s">
+      <c r="C59" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="71"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="69"/>
     </row>
     <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="D60" s="7" t="s">
+      <c r="C60" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="72"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="70"/>
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="D61" s="7" t="s">
+      <c r="C61" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="73"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="71"/>
     </row>
     <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="D62" s="7" t="s">
+      <c r="C62" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="74"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="72"/>
     </row>
     <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="D63" s="7" t="s">
+      <c r="C63" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="75"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="73"/>
     </row>
     <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="D64" s="7" t="s">
+      <c r="C64" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="76"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="74"/>
     </row>
     <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="D65" s="7" t="s">
+      <c r="C65" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="77"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="75"/>
     </row>
     <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="D66" s="7" t="s">
+      <c r="C66" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="78"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="76"/>
     </row>
     <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="D67" s="7" t="s">
+      <c r="C67" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="79"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="77"/>
     </row>
     <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="D68" s="7" t="s">
+      <c r="C68" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="80"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="78"/>
     </row>
     <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="D69" s="7" t="s">
+      <c r="C69" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="81"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="79"/>
     </row>
     <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="D70" s="7" t="s">
+      <c r="C70" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="82"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="80"/>
     </row>
     <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="D71" s="7" t="s">
+      <c r="C71" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="83"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7668,41 +7788,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.85546875" style="11" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.85546875" style="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" style="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="11" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14" style="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.875" style="11" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.875" style="11" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.875" style="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.125" style="11" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14" style="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>427</v>
       </c>
@@ -7710,15 +7830,15 @@
         <v>35</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>306</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="84"/>
-    </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F2" s="83"/>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>428</v>
       </c>
@@ -7726,15 +7846,15 @@
         <v>36</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>306</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="85"/>
-    </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F3" s="84"/>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>429</v>
       </c>
@@ -7742,15 +7862,15 @@
         <v>37</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>307</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="86"/>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F4" s="85"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>430</v>
       </c>
@@ -7758,15 +7878,15 @@
         <v>38</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>307</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="87"/>
-    </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F5" s="86"/>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>431</v>
       </c>
@@ -7774,15 +7894,15 @@
         <v>39</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>308</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="88"/>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F6" s="87"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>432</v>
       </c>
@@ -7790,15 +7910,15 @@
         <v>40</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>308</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="89"/>
-    </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F7" s="88"/>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>433</v>
       </c>
@@ -7806,15 +7926,15 @@
         <v>41</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>309</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="90"/>
-    </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F8" s="89"/>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>434</v>
       </c>
@@ -7822,15 +7942,15 @@
         <v>42</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>309</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="91"/>
-    </row>
-    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F9" s="90"/>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>435</v>
       </c>
@@ -7838,15 +7958,15 @@
         <v>43</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>310</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="92"/>
-    </row>
-    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F10" s="91"/>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>436</v>
       </c>
@@ -7854,15 +7974,15 @@
         <v>44</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>311</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="93"/>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F11" s="92"/>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>437</v>
       </c>
@@ -7870,15 +7990,15 @@
         <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>312</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="94"/>
-    </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F12" s="93"/>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>438</v>
       </c>
@@ -7886,15 +8006,15 @@
         <v>46</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>313</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="95"/>
-    </row>
-    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F13" s="94"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>439</v>
       </c>
@@ -7902,15 +8022,15 @@
         <v>47</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>314</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="96"/>
-    </row>
-    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F14" s="95"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>440</v>
       </c>
@@ -7918,15 +8038,15 @@
         <v>48</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>315</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="97"/>
-    </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F15" s="96"/>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>441</v>
       </c>
@@ -7934,15 +8054,15 @@
         <v>49</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>315</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="98"/>
-    </row>
-    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F16" s="97"/>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>442</v>
       </c>
@@ -7950,15 +8070,15 @@
         <v>50</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>316</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="99"/>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F17" s="98"/>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>443</v>
       </c>
@@ -7966,15 +8086,15 @@
         <v>51</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>317</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="100"/>
-    </row>
-    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F18" s="99"/>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>444</v>
       </c>
@@ -7982,15 +8102,15 @@
         <v>52</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>318</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="101"/>
-    </row>
-    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F19" s="100"/>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>445</v>
       </c>
@@ -7998,15 +8118,15 @@
         <v>53</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>319</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="102"/>
-    </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F20" s="101"/>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>446</v>
       </c>
@@ -8014,15 +8134,15 @@
         <v>54</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>320</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="103"/>
-    </row>
-    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F21" s="102"/>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>447</v>
       </c>
@@ -8030,15 +8150,15 @@
         <v>55</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>321</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="104"/>
-    </row>
-    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F22" s="103"/>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>448</v>
       </c>
@@ -8046,15 +8166,15 @@
         <v>56</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>322</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="105"/>
-    </row>
-    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F23" s="104"/>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>449</v>
       </c>
@@ -8062,15 +8182,15 @@
         <v>57</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>323</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="106"/>
-    </row>
-    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F24" s="105"/>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>450</v>
       </c>
@@ -8078,15 +8198,15 @@
         <v>58</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>323</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="107"/>
-    </row>
-    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F25" s="106"/>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>451</v>
       </c>
@@ -8094,15 +8214,15 @@
         <v>59</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>324</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="108"/>
-    </row>
-    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F26" s="107"/>
+    </row>
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>452</v>
       </c>
@@ -8110,15 +8230,15 @@
         <v>60</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>325</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="109"/>
-    </row>
-    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F27" s="108"/>
+    </row>
+    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>453</v>
       </c>
@@ -8126,15 +8246,15 @@
         <v>61</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>326</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="110"/>
-    </row>
-    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F28" s="109"/>
+    </row>
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>454</v>
       </c>
@@ -8142,15 +8262,15 @@
         <v>62</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>327</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="111"/>
-    </row>
-    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F29" s="110"/>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>455</v>
       </c>
@@ -8158,15 +8278,15 @@
         <v>63</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>328</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="112"/>
-    </row>
-    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F30" s="111"/>
+    </row>
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>456</v>
       </c>
@@ -8174,15 +8294,15 @@
         <v>64</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>329</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="113"/>
-    </row>
-    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F31" s="112"/>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>457</v>
       </c>
@@ -8190,15 +8310,15 @@
         <v>65</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>330</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="114"/>
-    </row>
-    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F32" s="113"/>
+    </row>
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>458</v>
       </c>
@@ -8206,15 +8326,15 @@
         <v>66</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>331</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="115"/>
-    </row>
-    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F33" s="114"/>
+    </row>
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>459</v>
       </c>
@@ -8222,15 +8342,15 @@
         <v>67</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>332</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="116"/>
-    </row>
-    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F34" s="115"/>
+    </row>
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>460</v>
       </c>
@@ -8238,15 +8358,15 @@
         <v>68</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>333</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="117"/>
-    </row>
-    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F35" s="116"/>
+    </row>
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>461</v>
       </c>
@@ -8254,575 +8374,575 @@
         <v>69</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>334</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="118"/>
-    </row>
-    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F36" s="117"/>
+    </row>
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="119"/>
-    </row>
-    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E37" s="10"/>
+      <c r="F37" s="118"/>
+    </row>
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="120"/>
-    </row>
-    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E38" s="10"/>
+      <c r="F38" s="119"/>
+    </row>
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="121"/>
-    </row>
-    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E39" s="10"/>
+      <c r="F39" s="120"/>
+    </row>
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="122"/>
-    </row>
-    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E40" s="10"/>
+      <c r="F40" s="121"/>
+    </row>
+    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="123"/>
-    </row>
-    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E41" s="10"/>
+      <c r="F41" s="122"/>
+    </row>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="124"/>
-    </row>
-    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E42" s="10"/>
+      <c r="F42" s="123"/>
+    </row>
+    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="125"/>
-    </row>
-    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E43" s="10"/>
+      <c r="F43" s="124"/>
+    </row>
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="126"/>
-    </row>
-    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E44" s="10"/>
+      <c r="F44" s="125"/>
+    </row>
+    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="127"/>
-    </row>
-    <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E45" s="10"/>
+      <c r="F45" s="126"/>
+    </row>
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="C46" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="128"/>
-    </row>
-    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E46" s="10"/>
+      <c r="F46" s="127"/>
+    </row>
+    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="129"/>
-    </row>
-    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E47" s="10"/>
+      <c r="F47" s="128"/>
+    </row>
+    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="C48" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="130"/>
-    </row>
-    <row r="49" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E48" s="10"/>
+      <c r="F48" s="129"/>
+    </row>
+    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="131"/>
-    </row>
-    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E49" s="10"/>
+      <c r="F49" s="130"/>
+    </row>
+    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="132"/>
-    </row>
-    <row r="51" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E50" s="10"/>
+      <c r="F50" s="131"/>
+    </row>
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="133"/>
-    </row>
-    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E51" s="10"/>
+      <c r="F51" s="132"/>
+    </row>
+    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="D52" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="134"/>
-    </row>
-    <row r="53" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E52" s="10"/>
+      <c r="F52" s="133"/>
+    </row>
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="D53" s="7" t="s">
+      <c r="C53" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="135"/>
-    </row>
-    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E53" s="10"/>
+      <c r="F53" s="134"/>
+    </row>
+    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="136"/>
-    </row>
-    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E54" s="10"/>
+      <c r="F54" s="135"/>
+    </row>
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="C55" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="137"/>
-    </row>
-    <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+      <c r="F55" s="136"/>
+    </row>
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="138"/>
-    </row>
-    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E56" s="10"/>
+      <c r="F56" s="137"/>
+    </row>
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="C57" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="139"/>
-    </row>
-    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E57" s="10"/>
+      <c r="F57" s="138"/>
+    </row>
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="D58" s="7" t="s">
+      <c r="C58" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="140"/>
-    </row>
-    <row r="59" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E58" s="10"/>
+      <c r="F58" s="139"/>
+    </row>
+    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="D59" s="7" t="s">
+      <c r="C59" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="141"/>
-    </row>
-    <row r="60" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E59" s="10"/>
+      <c r="F59" s="140"/>
+    </row>
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="D60" s="7" t="s">
+      <c r="C60" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="142"/>
-    </row>
-    <row r="61" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E60" s="10"/>
+      <c r="F60" s="141"/>
+    </row>
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="D61" s="7" t="s">
+      <c r="C61" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="143"/>
-    </row>
-    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E61" s="10"/>
+      <c r="F61" s="142"/>
+    </row>
+    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="D62" s="7" t="s">
+      <c r="C62" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="144"/>
-    </row>
-    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E62" s="10"/>
+      <c r="F62" s="143"/>
+    </row>
+    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="D63" s="7" t="s">
+      <c r="C63" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="145"/>
-    </row>
-    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E63" s="10"/>
+      <c r="F63" s="144"/>
+    </row>
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="D64" s="7" t="s">
+      <c r="C64" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="146"/>
-    </row>
-    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E64" s="10"/>
+      <c r="F64" s="145"/>
+    </row>
+    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="D65" s="7" t="s">
+      <c r="C65" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="147"/>
-    </row>
-    <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E65" s="10"/>
+      <c r="F65" s="146"/>
+    </row>
+    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="D66" s="7" t="s">
+      <c r="C66" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="148"/>
-    </row>
-    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E66" s="10"/>
+      <c r="F66" s="147"/>
+    </row>
+    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="D67" s="7" t="s">
+      <c r="C67" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="149"/>
-    </row>
-    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E67" s="10"/>
+      <c r="F67" s="148"/>
+    </row>
+    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="D68" s="7" t="s">
+      <c r="C68" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="150"/>
-    </row>
-    <row r="69" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E68" s="10"/>
+      <c r="F68" s="149"/>
+    </row>
+    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="D69" s="7" t="s">
+      <c r="C69" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="151"/>
-    </row>
-    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E69" s="10"/>
+      <c r="F69" s="150"/>
+    </row>
+    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="D70" s="7" t="s">
+      <c r="C70" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="152"/>
-    </row>
-    <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E70" s="10"/>
+      <c r="F70" s="151"/>
+    </row>
+    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="D71" s="7" t="s">
+      <c r="C71" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="153"/>
-    </row>
-    <row r="72" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="E71" s="10"/>
+      <c r="F71" s="152"/>
+    </row>
+    <row r="72" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>497</v>
       </c>
@@ -8830,15 +8950,15 @@
         <v>105</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>674</v>
+        <v>742</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="154"/>
-    </row>
-    <row r="73" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F72" s="153"/>
+    </row>
+    <row r="73" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>498</v>
       </c>
@@ -8846,15 +8966,15 @@
         <v>106</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="155"/>
-    </row>
-    <row r="74" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F73" s="154"/>
+    </row>
+    <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>499</v>
       </c>
@@ -8862,15 +8982,15 @@
         <v>107</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E74" s="9"/>
-      <c r="F74" s="156"/>
-    </row>
-    <row r="75" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F74" s="155"/>
+    </row>
+    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>500</v>
       </c>
@@ -8878,15 +8998,15 @@
         <v>108</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E75" s="9"/>
-      <c r="F75" s="157"/>
-    </row>
-    <row r="76" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F75" s="156"/>
+    </row>
+    <row r="76" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>501</v>
       </c>
@@ -8894,15 +9014,15 @@
         <v>109</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E76" s="9"/>
-      <c r="F76" s="158"/>
-    </row>
-    <row r="77" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F76" s="157"/>
+    </row>
+    <row r="77" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>502</v>
       </c>
@@ -8910,15 +9030,15 @@
         <v>110</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E77" s="9"/>
-      <c r="F77" s="159"/>
-    </row>
-    <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F77" s="158"/>
+    </row>
+    <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>503</v>
       </c>
@@ -8926,15 +9046,15 @@
         <v>111</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E78" s="9"/>
-      <c r="F78" s="160"/>
-    </row>
-    <row r="79" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F78" s="159"/>
+    </row>
+    <row r="79" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>504</v>
       </c>
@@ -8942,15 +9062,15 @@
         <v>112</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E79" s="9"/>
-      <c r="F79" s="161"/>
-    </row>
-    <row r="80" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F79" s="160"/>
+    </row>
+    <row r="80" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>505</v>
       </c>
@@ -8958,15 +9078,15 @@
         <v>113</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E80" s="9"/>
-      <c r="F80" s="162"/>
-    </row>
-    <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F80" s="161"/>
+    </row>
+    <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>506</v>
       </c>
@@ -8974,15 +9094,15 @@
         <v>114</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E81" s="9"/>
-      <c r="F81" s="163"/>
-    </row>
-    <row r="82" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F81" s="162"/>
+    </row>
+    <row r="82" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>507</v>
       </c>
@@ -8990,15 +9110,15 @@
         <v>115</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E82" s="9"/>
-      <c r="F82" s="164"/>
-    </row>
-    <row r="83" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F82" s="163"/>
+    </row>
+    <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>508</v>
       </c>
@@ -9006,15 +9126,15 @@
         <v>116</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>369</v>
       </c>
       <c r="E83" s="9"/>
-      <c r="F83" s="165"/>
-    </row>
-    <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F83" s="164"/>
+    </row>
+    <row r="84" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>509</v>
       </c>
@@ -9022,15 +9142,15 @@
         <v>117</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>369</v>
       </c>
       <c r="E84" s="9"/>
-      <c r="F84" s="166"/>
-    </row>
-    <row r="85" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F84" s="165"/>
+    </row>
+    <row r="85" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>510</v>
       </c>
@@ -9038,15 +9158,15 @@
         <v>118</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E85" s="9"/>
-      <c r="F85" s="167"/>
-    </row>
-    <row r="86" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F85" s="166"/>
+    </row>
+    <row r="86" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>511</v>
       </c>
@@ -9054,15 +9174,15 @@
         <v>119</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E86" s="9"/>
-      <c r="F86" s="168"/>
-    </row>
-    <row r="87" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F86" s="167"/>
+    </row>
+    <row r="87" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>512</v>
       </c>
@@ -9070,15 +9190,15 @@
         <v>120</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E87" s="9"/>
-      <c r="F87" s="169"/>
-    </row>
-    <row r="88" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F87" s="168"/>
+    </row>
+    <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>513</v>
       </c>
@@ -9086,15 +9206,15 @@
         <v>121</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E88" s="9"/>
-      <c r="F88" s="170"/>
-    </row>
-    <row r="89" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F88" s="169"/>
+    </row>
+    <row r="89" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>514</v>
       </c>
@@ -9102,15 +9222,15 @@
         <v>122</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E89" s="9"/>
-      <c r="F89" s="171"/>
-    </row>
-    <row r="90" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F89" s="170"/>
+    </row>
+    <row r="90" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>515</v>
       </c>
@@ -9118,15 +9238,15 @@
         <v>123</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E90" s="9"/>
-      <c r="F90" s="172"/>
-    </row>
-    <row r="91" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F90" s="171"/>
+    </row>
+    <row r="91" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>516</v>
       </c>
@@ -9134,15 +9254,15 @@
         <v>124</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E91" s="9"/>
-      <c r="F91" s="173"/>
-    </row>
-    <row r="92" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F91" s="172"/>
+    </row>
+    <row r="92" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>517</v>
       </c>
@@ -9150,15 +9270,15 @@
         <v>125</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>369</v>
       </c>
       <c r="E92" s="9"/>
-      <c r="F92" s="174"/>
-    </row>
-    <row r="93" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F92" s="173"/>
+    </row>
+    <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>518</v>
       </c>
@@ -9166,15 +9286,15 @@
         <v>126</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>369</v>
       </c>
       <c r="E93" s="9"/>
-      <c r="F93" s="175"/>
-    </row>
-    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F93" s="174"/>
+    </row>
+    <row r="94" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>519</v>
       </c>
@@ -9182,15 +9302,15 @@
         <v>127</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>370</v>
       </c>
       <c r="E94" s="9"/>
-      <c r="F94" s="176"/>
-    </row>
-    <row r="95" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F94" s="175"/>
+    </row>
+    <row r="95" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>520</v>
       </c>
@@ -9198,15 +9318,15 @@
         <v>128</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>369</v>
       </c>
       <c r="E95" s="9"/>
-      <c r="F95" s="177"/>
-    </row>
-    <row r="96" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F95" s="176"/>
+    </row>
+    <row r="96" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>521</v>
       </c>
@@ -9214,15 +9334,15 @@
         <v>129</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E96" s="9"/>
-      <c r="F96" s="178"/>
-    </row>
-    <row r="97" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F96" s="177"/>
+    </row>
+    <row r="97" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>522</v>
       </c>
@@ -9230,15 +9350,15 @@
         <v>130</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E97" s="9"/>
-      <c r="F97" s="179"/>
-    </row>
-    <row r="98" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F97" s="178"/>
+    </row>
+    <row r="98" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>523</v>
       </c>
@@ -9246,15 +9366,15 @@
         <v>131</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E98" s="9"/>
-      <c r="F98" s="180"/>
-    </row>
-    <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F98" s="179"/>
+    </row>
+    <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>524</v>
       </c>
@@ -9262,15 +9382,15 @@
         <v>132</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E99" s="9"/>
-      <c r="F99" s="181"/>
-    </row>
-    <row r="100" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F99" s="180"/>
+    </row>
+    <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>525</v>
       </c>
@@ -9278,15 +9398,15 @@
         <v>133</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E100" s="9"/>
-      <c r="F100" s="182"/>
-    </row>
-    <row r="101" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F100" s="181"/>
+    </row>
+    <row r="101" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>526</v>
       </c>
@@ -9294,15 +9414,15 @@
         <v>134</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E101" s="9"/>
-      <c r="F101" s="183"/>
-    </row>
-    <row r="102" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F101" s="182"/>
+    </row>
+    <row r="102" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>527</v>
       </c>
@@ -9310,15 +9430,15 @@
         <v>135</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E102" s="9"/>
-      <c r="F102" s="184"/>
-    </row>
-    <row r="103" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F102" s="183"/>
+    </row>
+    <row r="103" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>528</v>
       </c>
@@ -9326,15 +9446,15 @@
         <v>136</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E103" s="9"/>
-      <c r="F103" s="185"/>
-    </row>
-    <row r="104" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F103" s="184"/>
+    </row>
+    <row r="104" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>529</v>
       </c>
@@ -9342,15 +9462,15 @@
         <v>137</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E104" s="9"/>
-      <c r="F104" s="186"/>
-    </row>
-    <row r="105" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F104" s="185"/>
+    </row>
+    <row r="105" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>530</v>
       </c>
@@ -9358,15 +9478,15 @@
         <v>138</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E105" s="9"/>
-      <c r="F105" s="187"/>
-    </row>
-    <row r="106" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F105" s="186"/>
+    </row>
+    <row r="106" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>531</v>
       </c>
@@ -9374,575 +9494,575 @@
         <v>139</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>369</v>
       </c>
       <c r="E106" s="9"/>
-      <c r="F106" s="188"/>
-    </row>
-    <row r="107" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F106" s="187"/>
+    </row>
+    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="D107" s="7" t="s">
+      <c r="C107" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="189"/>
-    </row>
-    <row r="108" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E107" s="10"/>
+      <c r="F107" s="188"/>
+    </row>
+    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="190"/>
-    </row>
-    <row r="109" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E108" s="10"/>
+      <c r="F108" s="189"/>
+    </row>
+    <row r="109" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="191"/>
-    </row>
-    <row r="110" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E109" s="10"/>
+      <c r="F109" s="190"/>
+    </row>
+    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="10" t="s">
         <v>780</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="192"/>
-    </row>
-    <row r="111" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E110" s="10"/>
+      <c r="F110" s="191"/>
+    </row>
+    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="193"/>
-    </row>
-    <row r="112" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E111" s="10"/>
+      <c r="F111" s="192"/>
+    </row>
+    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="194"/>
-    </row>
-    <row r="113" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E112" s="10"/>
+      <c r="F112" s="193"/>
+    </row>
+    <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="195"/>
-    </row>
-    <row r="114" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E113" s="10"/>
+      <c r="F113" s="194"/>
+    </row>
+    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="10" t="s">
         <v>784</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="196"/>
-    </row>
-    <row r="115" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E114" s="10"/>
+      <c r="F114" s="195"/>
+    </row>
+    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="197"/>
-    </row>
-    <row r="116" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E115" s="10"/>
+      <c r="F115" s="196"/>
+    </row>
+    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="198"/>
-    </row>
-    <row r="117" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E116" s="10"/>
+      <c r="F116" s="197"/>
+    </row>
+    <row r="117" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="199"/>
-    </row>
-    <row r="118" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E117" s="10"/>
+      <c r="F117" s="198"/>
+    </row>
+    <row r="118" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="10" t="s">
         <v>788</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="200"/>
-    </row>
-    <row r="119" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E118" s="10"/>
+      <c r="F118" s="199"/>
+    </row>
+    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="201"/>
-    </row>
-    <row r="120" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E119" s="10"/>
+      <c r="F119" s="200"/>
+    </row>
+    <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="202"/>
-    </row>
-    <row r="121" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E120" s="10"/>
+      <c r="F120" s="201"/>
+    </row>
+    <row r="121" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="203"/>
-    </row>
-    <row r="122" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E121" s="10"/>
+      <c r="F121" s="202"/>
+    </row>
+    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="204"/>
-    </row>
-    <row r="123" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E122" s="10"/>
+      <c r="F122" s="203"/>
+    </row>
+    <row r="123" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="10" t="s">
         <v>793</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="205"/>
-    </row>
-    <row r="124" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E123" s="10"/>
+      <c r="F123" s="204"/>
+    </row>
+    <row r="124" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="206"/>
-    </row>
-    <row r="125" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E124" s="10"/>
+      <c r="F124" s="205"/>
+    </row>
+    <row r="125" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="207"/>
-    </row>
-    <row r="126" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E125" s="10"/>
+      <c r="F125" s="206"/>
+    </row>
+    <row r="126" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="208"/>
-    </row>
-    <row r="127" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E126" s="10"/>
+      <c r="F126" s="207"/>
+    </row>
+    <row r="127" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="E127" s="7"/>
-      <c r="F127" s="209"/>
-    </row>
-    <row r="128" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E127" s="10"/>
+      <c r="F127" s="208"/>
+    </row>
+    <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="E128" s="7"/>
-      <c r="F128" s="210"/>
-    </row>
-    <row r="129" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E128" s="10"/>
+      <c r="F128" s="209"/>
+    </row>
+    <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B129" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="211"/>
-    </row>
-    <row r="130" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E129" s="10"/>
+      <c r="F129" s="210"/>
+    </row>
+    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="212"/>
-    </row>
-    <row r="131" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E130" s="10"/>
+      <c r="F130" s="211"/>
+    </row>
+    <row r="131" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="213"/>
-    </row>
-    <row r="132" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E131" s="10"/>
+      <c r="F131" s="212"/>
+    </row>
+    <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="E132" s="7"/>
-      <c r="F132" s="214"/>
-    </row>
-    <row r="133" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E132" s="10"/>
+      <c r="F132" s="213"/>
+    </row>
+    <row r="133" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="E133" s="7"/>
-      <c r="F133" s="215"/>
-    </row>
-    <row r="134" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E133" s="10"/>
+      <c r="F133" s="214"/>
+    </row>
+    <row r="134" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="216"/>
-    </row>
-    <row r="135" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E134" s="10"/>
+      <c r="F134" s="215"/>
+    </row>
+    <row r="135" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="217"/>
-    </row>
-    <row r="136" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E135" s="10"/>
+      <c r="F135" s="216"/>
+    </row>
+    <row r="136" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="10" t="s">
         <v>806</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="E136" s="7"/>
-      <c r="F136" s="218"/>
-    </row>
-    <row r="137" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E136" s="10"/>
+      <c r="F136" s="217"/>
+    </row>
+    <row r="137" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="E137" s="7"/>
-      <c r="F137" s="219"/>
-    </row>
-    <row r="138" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E137" s="10"/>
+      <c r="F137" s="218"/>
+    </row>
+    <row r="138" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="E138" s="7"/>
-      <c r="F138" s="220"/>
-    </row>
-    <row r="139" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E138" s="10"/>
+      <c r="F138" s="219"/>
+    </row>
+    <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="221"/>
-    </row>
-    <row r="140" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E139" s="10"/>
+      <c r="F139" s="220"/>
+    </row>
+    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="222"/>
-    </row>
-    <row r="141" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E140" s="10"/>
+      <c r="F140" s="221"/>
+    </row>
+    <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B141" s="13" t="s">
+      <c r="B141" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="10" t="s">
         <v>811</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="223"/>
-    </row>
-    <row r="142" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E141" s="10"/>
+      <c r="F141" s="222"/>
+    </row>
+    <row r="142" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>567</v>
       </c>
@@ -9950,15 +10070,15 @@
         <v>175</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>676</v>
+        <v>812</v>
       </c>
       <c r="D142" s="9" t="s">
         <v>403</v>
       </c>
       <c r="E142" s="9"/>
-      <c r="F142" s="224"/>
-    </row>
-    <row r="143" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F142" s="223"/>
+    </row>
+    <row r="143" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>568</v>
       </c>
@@ -9966,15 +10086,15 @@
         <v>176</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>369</v>
       </c>
       <c r="E143" s="9"/>
-      <c r="F143" s="225"/>
-    </row>
-    <row r="144" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F143" s="224"/>
+    </row>
+    <row r="144" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>569</v>
       </c>
@@ -9982,15 +10102,15 @@
         <v>177</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E144" s="9"/>
-      <c r="F144" s="226"/>
-    </row>
-    <row r="145" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F144" s="225"/>
+    </row>
+    <row r="145" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>570</v>
       </c>
@@ -9998,15 +10118,15 @@
         <v>178</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>404</v>
       </c>
       <c r="E145" s="9"/>
-      <c r="F145" s="227"/>
-    </row>
-    <row r="146" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F145" s="226"/>
+    </row>
+    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>571</v>
       </c>
@@ -10014,15 +10134,15 @@
         <v>179</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>405</v>
       </c>
       <c r="E146" s="9"/>
-      <c r="F146" s="228"/>
-    </row>
-    <row r="147" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F146" s="227"/>
+    </row>
+    <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>572</v>
       </c>
@@ -10030,15 +10150,15 @@
         <v>180</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>406</v>
       </c>
       <c r="E147" s="9"/>
-      <c r="F147" s="229"/>
-    </row>
-    <row r="148" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F147" s="228"/>
+    </row>
+    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>573</v>
       </c>
@@ -10046,15 +10166,15 @@
         <v>181</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E148" s="9"/>
-      <c r="F148" s="230"/>
-    </row>
-    <row r="149" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F148" s="229"/>
+    </row>
+    <row r="149" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>574</v>
       </c>
@@ -10062,15 +10182,15 @@
         <v>182</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>407</v>
       </c>
       <c r="E149" s="9"/>
-      <c r="F149" s="231"/>
-    </row>
-    <row r="150" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F149" s="230"/>
+    </row>
+    <row r="150" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>575</v>
       </c>
@@ -10078,15 +10198,15 @@
         <v>183</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>408</v>
       </c>
       <c r="E150" s="9"/>
-      <c r="F150" s="232"/>
-    </row>
-    <row r="151" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F150" s="231"/>
+    </row>
+    <row r="151" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>576</v>
       </c>
@@ -10094,15 +10214,15 @@
         <v>184</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>409</v>
       </c>
       <c r="E151" s="9"/>
-      <c r="F151" s="233"/>
-    </row>
-    <row r="152" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F151" s="232"/>
+    </row>
+    <row r="152" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>577</v>
       </c>
@@ -10110,15 +10230,15 @@
         <v>185</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>410</v>
       </c>
       <c r="E152" s="9"/>
-      <c r="F152" s="234"/>
-    </row>
-    <row r="153" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F152" s="233"/>
+    </row>
+    <row r="153" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>578</v>
       </c>
@@ -10126,15 +10246,15 @@
         <v>186</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E153" s="9"/>
-      <c r="F153" s="235"/>
-    </row>
-    <row r="154" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F153" s="234"/>
+    </row>
+    <row r="154" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>579</v>
       </c>
@@ -10142,15 +10262,15 @@
         <v>187</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>411</v>
       </c>
       <c r="E154" s="9"/>
-      <c r="F154" s="236"/>
-    </row>
-    <row r="155" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F154" s="235"/>
+    </row>
+    <row r="155" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>580</v>
       </c>
@@ -10158,15 +10278,15 @@
         <v>188</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>404</v>
       </c>
       <c r="E155" s="9"/>
-      <c r="F155" s="237"/>
-    </row>
-    <row r="156" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F155" s="236"/>
+    </row>
+    <row r="156" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>581</v>
       </c>
@@ -10174,15 +10294,15 @@
         <v>189</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D156" s="9" t="s">
         <v>412</v>
       </c>
       <c r="E156" s="9"/>
-      <c r="F156" s="238"/>
-    </row>
-    <row r="157" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F156" s="237"/>
+    </row>
+    <row r="157" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>582</v>
       </c>
@@ -10190,15 +10310,15 @@
         <v>190</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>412</v>
       </c>
       <c r="E157" s="9"/>
-      <c r="F157" s="239"/>
-    </row>
-    <row r="158" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F157" s="238"/>
+    </row>
+    <row r="158" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>583</v>
       </c>
@@ -10206,15 +10326,15 @@
         <v>191</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>412</v>
       </c>
       <c r="E158" s="9"/>
-      <c r="F158" s="240"/>
-    </row>
-    <row r="159" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F158" s="239"/>
+    </row>
+    <row r="159" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>584</v>
       </c>
@@ -10222,15 +10342,15 @@
         <v>192</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D159" s="9" t="s">
         <v>413</v>
       </c>
       <c r="E159" s="9"/>
-      <c r="F159" s="241"/>
-    </row>
-    <row r="160" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F159" s="240"/>
+    </row>
+    <row r="160" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>585</v>
       </c>
@@ -10238,15 +10358,15 @@
         <v>193</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E160" s="9"/>
-      <c r="F160" s="242"/>
-    </row>
-    <row r="161" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F160" s="241"/>
+    </row>
+    <row r="161" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>586</v>
       </c>
@@ -10254,15 +10374,15 @@
         <v>194</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D161" s="9" t="s">
         <v>414</v>
       </c>
       <c r="E161" s="9"/>
-      <c r="F161" s="243"/>
-    </row>
-    <row r="162" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F161" s="242"/>
+    </row>
+    <row r="162" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>587</v>
       </c>
@@ -10270,15 +10390,15 @@
         <v>195</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D162" s="9" t="s">
         <v>415</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" s="244"/>
-    </row>
-    <row r="163" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F162" s="243"/>
+    </row>
+    <row r="163" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>588</v>
       </c>
@@ -10286,15 +10406,15 @@
         <v>196</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>415</v>
       </c>
       <c r="E163" s="9"/>
-      <c r="F163" s="245"/>
-    </row>
-    <row r="164" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F163" s="244"/>
+    </row>
+    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>589</v>
       </c>
@@ -10302,15 +10422,15 @@
         <v>197</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>416</v>
       </c>
       <c r="E164" s="9"/>
-      <c r="F164" s="246"/>
-    </row>
-    <row r="165" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F164" s="245"/>
+    </row>
+    <row r="165" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>590</v>
       </c>
@@ -10318,15 +10438,15 @@
         <v>198</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>417</v>
       </c>
       <c r="E165" s="9"/>
-      <c r="F165" s="247"/>
-    </row>
-    <row r="166" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F165" s="246"/>
+    </row>
+    <row r="166" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>591</v>
       </c>
@@ -10334,15 +10454,15 @@
         <v>199</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E166" s="9"/>
-      <c r="F166" s="248"/>
-    </row>
-    <row r="167" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F166" s="247"/>
+    </row>
+    <row r="167" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>592</v>
       </c>
@@ -10350,15 +10470,15 @@
         <v>200</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E167" s="9"/>
-      <c r="F167" s="249"/>
-    </row>
-    <row r="168" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F167" s="248"/>
+    </row>
+    <row r="168" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>593</v>
       </c>
@@ -10366,15 +10486,15 @@
         <v>201</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E168" s="9"/>
-      <c r="F168" s="250"/>
-    </row>
-    <row r="169" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F168" s="249"/>
+    </row>
+    <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>594</v>
       </c>
@@ -10382,15 +10502,15 @@
         <v>202</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E169" s="9"/>
-      <c r="F169" s="251"/>
-    </row>
-    <row r="170" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F169" s="250"/>
+    </row>
+    <row r="170" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>595</v>
       </c>
@@ -10398,15 +10518,15 @@
         <v>203</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>419</v>
       </c>
       <c r="E170" s="9"/>
-      <c r="F170" s="252"/>
-    </row>
-    <row r="171" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F170" s="251"/>
+    </row>
+    <row r="171" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>596</v>
       </c>
@@ -10414,15 +10534,15 @@
         <v>204</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>420</v>
       </c>
       <c r="E171" s="9"/>
-      <c r="F171" s="253"/>
-    </row>
-    <row r="172" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F171" s="252"/>
+    </row>
+    <row r="172" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>597</v>
       </c>
@@ -10430,15 +10550,15 @@
         <v>205</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>421</v>
       </c>
       <c r="E172" s="9"/>
-      <c r="F172" s="254"/>
-    </row>
-    <row r="173" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F172" s="253"/>
+    </row>
+    <row r="173" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>598</v>
       </c>
@@ -10446,15 +10566,15 @@
         <v>206</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>417</v>
       </c>
       <c r="E173" s="9"/>
-      <c r="F173" s="255"/>
-    </row>
-    <row r="174" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F173" s="254"/>
+    </row>
+    <row r="174" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>599</v>
       </c>
@@ -10462,15 +10582,15 @@
         <v>207</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D174" s="9" t="s">
         <v>369</v>
       </c>
       <c r="E174" s="9"/>
-      <c r="F174" s="256"/>
-    </row>
-    <row r="175" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F174" s="255"/>
+    </row>
+    <row r="175" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>600</v>
       </c>
@@ -10478,15 +10598,15 @@
         <v>208</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>370</v>
       </c>
       <c r="E175" s="9"/>
-      <c r="F175" s="257"/>
-    </row>
-    <row r="176" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="F175" s="256"/>
+    </row>
+    <row r="176" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>601</v>
       </c>
@@ -10494,13 +10614,13 @@
         <v>209</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D176" s="9" t="s">
         <v>422</v>
       </c>
       <c r="E176" s="9"/>
-      <c r="F176" s="258"/>
+      <c r="F176" s="257"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10512,635 +10632,638 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="50.42578125" style="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="11" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="50.375" style="11" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.375" style="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.125" style="11" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.875" style="258" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="259" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="259"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="260"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="260"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="261"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="260"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>849</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="262"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="260"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="263"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="260"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="264"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="260"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="265"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="260"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="266"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="260"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="267"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="260"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="268"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="260"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="269"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="260"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="270"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="260"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="271"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="260"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>859</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="272"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="260"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="273"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="260"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="274"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="260"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>862</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="275"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="260"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="276"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="260"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>864</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="277"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="260"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="278"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="260"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>866</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="279"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="260"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="280"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="260"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>868</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="281"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="260"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="282"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="260"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>870</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="283"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="260"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>871</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="284"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="260"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="285"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="260"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="286"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="260"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="287"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="260"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="288"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="260"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>876</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="289"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="260"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="290"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="260"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="291"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="260"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>879</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="292"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="260"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="293"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="260"/>
       <c r="G36" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:F1048576"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AndyTEST/Libs/ComplexScenariosChecklist.xlsx
+++ b/AndyTEST/Libs/ComplexScenariosChecklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="210" yWindow="-45" windowWidth="14835" windowHeight="13980" tabRatio="595"/>
@@ -1824,917 +1824,917 @@
     <t>175.</t>
   </si>
   <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1001</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1002</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1003</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1004</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1005</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1006</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1007</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1008</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1009</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1010</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1011</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1012</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1013</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1014</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1015</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1016</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1017</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1018</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1019</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1020</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1021</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1022</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1023</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1024</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1025</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1026</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1027</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1028</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1029</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1030</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1031</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1032</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1033</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1034</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1035</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1001</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1002</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1003</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1004</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1005</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1006</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1007</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1008</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1009</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1010</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1011</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1012</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1013</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1014</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1015</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1016</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1017</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1018</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1019</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1020</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1021</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1022</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1023</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1024</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1025</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1026</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1027</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1028</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1029</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1030</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1031</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1032</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1033</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1034</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1035</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1002</t>
+  </si>
+  <si>
+    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1003</t>
+  </si>
+  <si>
+    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1004</t>
+  </si>
+  <si>
+    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1005</t>
+  </si>
+  <si>
+    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1008</t>
+  </si>
+  <si>
+    <t>SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1031</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1034</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT dutyFree, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1035</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1027</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1028</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1031</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1033</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1034</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT priorityBoarding, departureAirport FROM Airports INNER JOIN Flights ON Airports.airportNumber=Flights.airportNumber WHERE flightNumber = 1035</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1001</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
   </si>
   <si>
-    <t>USE TestDB SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT departureAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1001</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
   </si>
   <si>
-    <t>USE TestDB SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT arrivalAirport, airline FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1001</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
   </si>
   <si>
-    <t>USE TestDB SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT stopsNumber, additionalSpaceService FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1001</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
   </si>
   <si>
-    <t>USE TestDB SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT averageTicketPrice, webRegistration FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1001</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1002</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1003</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1004</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1005</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1006</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1007</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1008</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1009</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1010</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1011</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1012</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1013</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1014</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1015</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1016</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1017</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1018</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1019</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1020</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1021</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1022</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1023</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1024</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1025</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1026</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1027</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1028</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1029</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1030</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1031</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1032</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1033</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1034</t>
   </si>
   <si>
-    <t>USE TestDB SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
+    <t xml:space="preserve"> SELECT availableSeats, isMealIncluded FROM Flights INNER JOIN Airlines 
 ON Flights.flightNumber =Airlines.flightNumber  WHERE Flights.flightNumber = 1035</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2742,7 +2742,7 @@
 WHERE Airlines.flightNumber = 1001</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2750,7 +2750,7 @@
 WHERE Airlines.flightNumber = 1002</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2758,7 +2758,7 @@
 WHERE Airlines.flightNumber = 1003</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2766,7 +2766,7 @@
 WHERE Airlines.flightNumber = 1004</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2774,7 +2774,15 @@
 WHERE Airlines.flightNumber = 1005</t>
   </si>
   <si>
-    <t>USE TestDBSELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
+INNER JOIN Flights 
+ON Airports.airportNumber = Flights.airportNumber
+INNER JOIN  Airlines
+ON Flights.flightNumber = Airlines.flightNumber
+WHERE Airlines.flightNumber = 1006</t>
+  </si>
+  <si>
+    <t>SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2782,15 +2790,7 @@
 WHERE Airlines.flightNumber = 1007</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
-INNER JOIN Flights 
-ON Airports.airportNumber = Flights.airportNumber
-INNER JOIN  Airlines
-ON Flights.flightNumber = Airlines.flightNumber
-WHERE Airlines.flightNumber = 1006</t>
-  </si>
-  <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2798,7 +2798,7 @@
 WHERE Airlines.flightNumber = 1008</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2806,7 +2806,7 @@
 WHERE Airlines.flightNumber = 1009</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2814,7 +2814,7 @@
 WHERE Airlines.flightNumber = 1010</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2822,7 +2822,7 @@
 WHERE Airlines.flightNumber = 1011</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2830,7 +2830,7 @@
 WHERE Airlines.flightNumber = 1012</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2838,7 +2838,7 @@
 WHERE Airlines.flightNumber = 1013</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2846,7 +2846,7 @@
 WHERE Airlines.flightNumber = 1014</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2854,7 +2854,7 @@
 WHERE Airlines.flightNumber = 1015</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2862,7 +2862,7 @@
 WHERE Airlines.flightNumber = 1016</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2870,7 +2870,7 @@
 WHERE Airlines.flightNumber = 1017</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2878,7 +2878,7 @@
 WHERE Airlines.flightNumber = 1018</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2886,7 +2886,7 @@
 WHERE Airlines.flightNumber = 1019</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2894,7 +2894,7 @@
 WHERE Airlines.flightNumber = 1020</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2902,7 +2902,7 @@
 WHERE Airlines.flightNumber = 1021</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2910,7 +2910,7 @@
 WHERE Airlines.flightNumber = 1022</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2918,7 +2918,7 @@
 WHERE Airlines.flightNumber = 1023</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2926,7 +2926,7 @@
 WHERE Airlines.flightNumber = 1024</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2934,7 +2934,7 @@
 WHERE Airlines.flightNumber = 1025</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2942,7 +2942,7 @@
 WHERE Airlines.flightNumber = 1026</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2950,7 +2950,7 @@
 WHERE Airlines.flightNumber = 1027</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2958,7 +2958,7 @@
 WHERE Airlines.flightNumber = 1028</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2966,7 +2966,7 @@
 WHERE Airlines.flightNumber = 1029</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2974,7 +2974,7 @@
 WHERE Airlines.flightNumber = 1030</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2982,7 +2982,7 @@
 WHERE Airlines.flightNumber = 1031</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2990,7 +2990,7 @@
 WHERE Airlines.flightNumber = 1032</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -2998,7 +2998,7 @@
 WHERE Airlines.flightNumber = 1033</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -3006,7 +3006,7 @@
 WHERE Airlines.flightNumber = 1034</t>
   </si>
   <si>
-    <t>USE TestDB SELECT priorityBoarding, webRegistration FROM Airports 
+    <t xml:space="preserve"> SELECT priorityBoarding, webRegistration FROM Airports 
 INNER JOIN Flights 
 ON Airports.airportNumber = Flights.airportNumber
 INNER JOIN  Airlines
@@ -6309,13 +6309,13 @@
     <xf numFmtId="0" fontId="246" fillId="247" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6378,7 +6378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6413,7 +6413,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6625,17 +6625,17 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55.75" style="11" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.125" style="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.75" style="11" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.75" style="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.7109375" style="11" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.85546875" style="11" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" style="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.7109375" style="11" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" style="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7218,7 +7218,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="46"/>
     </row>
-    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>462</v>
       </c>
@@ -7234,7 +7234,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="47"/>
     </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>463</v>
       </c>
@@ -7250,7 +7250,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="48"/>
     </row>
-    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>464</v>
       </c>
@@ -7266,7 +7266,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="49"/>
     </row>
-    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>465</v>
       </c>
@@ -7282,7 +7282,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="50"/>
     </row>
-    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>466</v>
       </c>
@@ -7298,7 +7298,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="51"/>
     </row>
-    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>467</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="52"/>
     </row>
-    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>468</v>
       </c>
@@ -7330,7 +7330,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="53"/>
     </row>
-    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>469</v>
       </c>
@@ -7346,7 +7346,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="54"/>
     </row>
-    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>470</v>
       </c>
@@ -7362,7 +7362,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>471</v>
       </c>
@@ -7378,7 +7378,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="56"/>
     </row>
-    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>472</v>
       </c>
@@ -7394,7 +7394,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="57"/>
     </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>473</v>
       </c>
@@ -7410,7 +7410,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="58"/>
     </row>
-    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>474</v>
       </c>
@@ -7426,7 +7426,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="59"/>
     </row>
-    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>475</v>
       </c>
@@ -7442,7 +7442,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>476</v>
       </c>
@@ -7458,7 +7458,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="61"/>
     </row>
-    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>477</v>
       </c>
@@ -7474,7 +7474,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="62"/>
     </row>
-    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>478</v>
       </c>
@@ -7490,7 +7490,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="63"/>
     </row>
-    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>479</v>
       </c>
@@ -7506,7 +7506,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="64"/>
     </row>
-    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>480</v>
       </c>
@@ -7522,7 +7522,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="65"/>
     </row>
-    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>481</v>
       </c>
@@ -7538,7 +7538,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="66"/>
     </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>482</v>
       </c>
@@ -7554,7 +7554,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="67"/>
     </row>
-    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>483</v>
       </c>
@@ -7570,7 +7570,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="68"/>
     </row>
-    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>484</v>
       </c>
@@ -7586,7 +7586,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="69"/>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>485</v>
       </c>
@@ -7602,7 +7602,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="70"/>
     </row>
-    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>486</v>
       </c>
@@ -7618,7 +7618,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="71"/>
     </row>
-    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>487</v>
       </c>
@@ -7634,7 +7634,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="72"/>
     </row>
-    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>488</v>
       </c>
@@ -7650,7 +7650,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="73"/>
     </row>
-    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>489</v>
       </c>
@@ -7666,7 +7666,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="74"/>
     </row>
-    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>490</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="75"/>
     </row>
-    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>491</v>
       </c>
@@ -7698,7 +7698,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="76"/>
     </row>
-    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>492</v>
       </c>
@@ -7714,7 +7714,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="77"/>
     </row>
-    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>493</v>
       </c>
@@ -7730,7 +7730,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="78"/>
     </row>
-    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>494</v>
       </c>
@@ -7746,7 +7746,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="79"/>
     </row>
-    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>495</v>
       </c>
@@ -7762,7 +7762,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="80"/>
     </row>
-    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>496</v>
       </c>
@@ -7795,10 +7795,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.125" style="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="51.85546875" style="11" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.85546875" style="11" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" style="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="11" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="14" style="11" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -7822,7 +7822,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>427</v>
       </c>
@@ -7838,7 +7838,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="83"/>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>428</v>
       </c>
@@ -7854,7 +7854,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="84"/>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>429</v>
       </c>
@@ -7870,7 +7870,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="85"/>
     </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>430</v>
       </c>
@@ -7886,7 +7886,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="86"/>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>431</v>
       </c>
@@ -7902,7 +7902,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="87"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>432</v>
       </c>
@@ -7918,7 +7918,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="88"/>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>433</v>
       </c>
@@ -7934,7 +7934,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="89"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>434</v>
       </c>
@@ -7950,7 +7950,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="90"/>
     </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>435</v>
       </c>
@@ -7966,7 +7966,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="91"/>
     </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>436</v>
       </c>
@@ -7982,7 +7982,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="92"/>
     </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>437</v>
       </c>
@@ -7998,7 +7998,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="93"/>
     </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>438</v>
       </c>
@@ -8014,7 +8014,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="94"/>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>439</v>
       </c>
@@ -8030,7 +8030,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="95"/>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>440</v>
       </c>
@@ -8046,7 +8046,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="96"/>
     </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>441</v>
       </c>
@@ -8062,7 +8062,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="97"/>
     </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>442</v>
       </c>
@@ -8078,7 +8078,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="98"/>
     </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>443</v>
       </c>
@@ -8094,7 +8094,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="99"/>
     </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>444</v>
       </c>
@@ -8110,7 +8110,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="100"/>
     </row>
-    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>445</v>
       </c>
@@ -8126,7 +8126,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="101"/>
     </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>446</v>
       </c>
@@ -8142,7 +8142,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="102"/>
     </row>
-    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>447</v>
       </c>
@@ -8158,7 +8158,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="103"/>
     </row>
-    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>448</v>
       </c>
@@ -8174,7 +8174,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="104"/>
     </row>
-    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>449</v>
       </c>
@@ -8190,7 +8190,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="105"/>
     </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>450</v>
       </c>
@@ -8206,7 +8206,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="106"/>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>451</v>
       </c>
@@ -8222,7 +8222,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="107"/>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>452</v>
       </c>
@@ -8238,7 +8238,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="108"/>
     </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>453</v>
       </c>
@@ -8254,7 +8254,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="109"/>
     </row>
-    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>454</v>
       </c>
@@ -8270,7 +8270,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="110"/>
     </row>
-    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>455</v>
       </c>
@@ -8286,7 +8286,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="111"/>
     </row>
-    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>456</v>
       </c>
@@ -8302,7 +8302,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="112"/>
     </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>457</v>
       </c>
@@ -8318,7 +8318,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="113"/>
     </row>
-    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>458</v>
       </c>
@@ -8334,7 +8334,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="114"/>
     </row>
-    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>459</v>
       </c>
@@ -8350,7 +8350,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="115"/>
     </row>
-    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>460</v>
       </c>
@@ -8366,7 +8366,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="116"/>
     </row>
-    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>461</v>
       </c>
@@ -8382,7 +8382,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="117"/>
     </row>
-    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>462</v>
       </c>
@@ -8398,7 +8398,7 @@
       <c r="E37" s="10"/>
       <c r="F37" s="118"/>
     </row>
-    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>463</v>
       </c>
@@ -8414,7 +8414,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="119"/>
     </row>
-    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>464</v>
       </c>
@@ -8430,7 +8430,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="120"/>
     </row>
-    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>465</v>
       </c>
@@ -8446,7 +8446,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="121"/>
     </row>
-    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>466</v>
       </c>
@@ -8462,7 +8462,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="122"/>
     </row>
-    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>467</v>
       </c>
@@ -8478,7 +8478,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="123"/>
     </row>
-    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>468</v>
       </c>
@@ -8494,7 +8494,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="124"/>
     </row>
-    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>469</v>
       </c>
@@ -8510,7 +8510,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="125"/>
     </row>
-    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>470</v>
       </c>
@@ -8526,7 +8526,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="126"/>
     </row>
-    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>471</v>
       </c>
@@ -8542,7 +8542,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="127"/>
     </row>
-    <row r="47" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>472</v>
       </c>
@@ -8558,7 +8558,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="128"/>
     </row>
-    <row r="48" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>473</v>
       </c>
@@ -8574,7 +8574,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="129"/>
     </row>
-    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>474</v>
       </c>
@@ -8590,7 +8590,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="130"/>
     </row>
-    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>475</v>
       </c>
@@ -8606,7 +8606,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="131"/>
     </row>
-    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>476</v>
       </c>
@@ -8622,7 +8622,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="132"/>
     </row>
-    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>477</v>
       </c>
@@ -8638,7 +8638,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="133"/>
     </row>
-    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>478</v>
       </c>
@@ -8654,7 +8654,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="134"/>
     </row>
-    <row r="54" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>479</v>
       </c>
@@ -8670,7 +8670,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="135"/>
     </row>
-    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>480</v>
       </c>
@@ -8686,7 +8686,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="136"/>
     </row>
-    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>481</v>
       </c>
@@ -8702,7 +8702,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="137"/>
     </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>482</v>
       </c>
@@ -8718,7 +8718,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="138"/>
     </row>
-    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>483</v>
       </c>
@@ -8734,7 +8734,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="139"/>
     </row>
-    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>484</v>
       </c>
@@ -8750,7 +8750,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="140"/>
     </row>
-    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>485</v>
       </c>
@@ -8766,7 +8766,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="141"/>
     </row>
-    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>486</v>
       </c>
@@ -8782,7 +8782,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="142"/>
     </row>
-    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>487</v>
       </c>
@@ -8798,7 +8798,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="143"/>
     </row>
-    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>488</v>
       </c>
@@ -8814,7 +8814,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="144"/>
     </row>
-    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>489</v>
       </c>
@@ -8830,7 +8830,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="145"/>
     </row>
-    <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>490</v>
       </c>
@@ -8846,7 +8846,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="146"/>
     </row>
-    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>491</v>
       </c>
@@ -8862,7 +8862,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="147"/>
     </row>
-    <row r="67" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>492</v>
       </c>
@@ -8878,7 +8878,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="148"/>
     </row>
-    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>493</v>
       </c>
@@ -8894,7 +8894,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="149"/>
     </row>
-    <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>494</v>
       </c>
@@ -8910,7 +8910,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="150"/>
     </row>
-    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>495</v>
       </c>
@@ -8926,7 +8926,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="151"/>
     </row>
-    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>496</v>
       </c>
@@ -8942,7 +8942,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="152"/>
     </row>
-    <row r="72" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>497</v>
       </c>
@@ -8958,7 +8958,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="153"/>
     </row>
-    <row r="73" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>498</v>
       </c>
@@ -8974,7 +8974,7 @@
       <c r="E73" s="9"/>
       <c r="F73" s="154"/>
     </row>
-    <row r="74" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>499</v>
       </c>
@@ -8990,7 +8990,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="155"/>
     </row>
-    <row r="75" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>500</v>
       </c>
@@ -9006,7 +9006,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="156"/>
     </row>
-    <row r="76" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>501</v>
       </c>
@@ -9022,7 +9022,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="157"/>
     </row>
-    <row r="77" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>502</v>
       </c>
@@ -9038,7 +9038,7 @@
       <c r="E77" s="9"/>
       <c r="F77" s="158"/>
     </row>
-    <row r="78" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>503</v>
       </c>
@@ -9054,7 +9054,7 @@
       <c r="E78" s="9"/>
       <c r="F78" s="159"/>
     </row>
-    <row r="79" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>504</v>
       </c>
@@ -9070,7 +9070,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="160"/>
     </row>
-    <row r="80" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>505</v>
       </c>
@@ -9086,7 +9086,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="161"/>
     </row>
-    <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>506</v>
       </c>
@@ -9102,7 +9102,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="162"/>
     </row>
-    <row r="82" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>507</v>
       </c>
@@ -9118,7 +9118,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="163"/>
     </row>
-    <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>508</v>
       </c>
@@ -9134,7 +9134,7 @@
       <c r="E83" s="9"/>
       <c r="F83" s="164"/>
     </row>
-    <row r="84" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>509</v>
       </c>
@@ -9150,7 +9150,7 @@
       <c r="E84" s="9"/>
       <c r="F84" s="165"/>
     </row>
-    <row r="85" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>510</v>
       </c>
@@ -9166,7 +9166,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="166"/>
     </row>
-    <row r="86" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>511</v>
       </c>
@@ -9182,7 +9182,7 @@
       <c r="E86" s="9"/>
       <c r="F86" s="167"/>
     </row>
-    <row r="87" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>512</v>
       </c>
@@ -9198,7 +9198,7 @@
       <c r="E87" s="9"/>
       <c r="F87" s="168"/>
     </row>
-    <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>513</v>
       </c>
@@ -9214,7 +9214,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="169"/>
     </row>
-    <row r="89" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>514</v>
       </c>
@@ -9230,7 +9230,7 @@
       <c r="E89" s="9"/>
       <c r="F89" s="170"/>
     </row>
-    <row r="90" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>515</v>
       </c>
@@ -9246,7 +9246,7 @@
       <c r="E90" s="9"/>
       <c r="F90" s="171"/>
     </row>
-    <row r="91" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>516</v>
       </c>
@@ -9262,7 +9262,7 @@
       <c r="E91" s="9"/>
       <c r="F91" s="172"/>
     </row>
-    <row r="92" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>517</v>
       </c>
@@ -9278,7 +9278,7 @@
       <c r="E92" s="9"/>
       <c r="F92" s="173"/>
     </row>
-    <row r="93" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>518</v>
       </c>
@@ -9294,7 +9294,7 @@
       <c r="E93" s="9"/>
       <c r="F93" s="174"/>
     </row>
-    <row r="94" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>519</v>
       </c>
@@ -9310,7 +9310,7 @@
       <c r="E94" s="9"/>
       <c r="F94" s="175"/>
     </row>
-    <row r="95" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>520</v>
       </c>
@@ -9326,7 +9326,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="176"/>
     </row>
-    <row r="96" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>521</v>
       </c>
@@ -9342,7 +9342,7 @@
       <c r="E96" s="9"/>
       <c r="F96" s="177"/>
     </row>
-    <row r="97" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>522</v>
       </c>
@@ -9358,7 +9358,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="178"/>
     </row>
-    <row r="98" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>523</v>
       </c>
@@ -9374,7 +9374,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="179"/>
     </row>
-    <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>524</v>
       </c>
@@ -9390,7 +9390,7 @@
       <c r="E99" s="9"/>
       <c r="F99" s="180"/>
     </row>
-    <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>525</v>
       </c>
@@ -9406,7 +9406,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="181"/>
     </row>
-    <row r="101" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>526</v>
       </c>
@@ -9422,7 +9422,7 @@
       <c r="E101" s="9"/>
       <c r="F101" s="182"/>
     </row>
-    <row r="102" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>527</v>
       </c>
@@ -9438,7 +9438,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="183"/>
     </row>
-    <row r="103" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>528</v>
       </c>
@@ -9454,7 +9454,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="184"/>
     </row>
-    <row r="104" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>529</v>
       </c>
@@ -9470,7 +9470,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="185"/>
     </row>
-    <row r="105" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>530</v>
       </c>
@@ -9486,7 +9486,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="186"/>
     </row>
-    <row r="106" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>531</v>
       </c>
@@ -9502,7 +9502,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="187"/>
     </row>
-    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>532</v>
       </c>
@@ -9518,7 +9518,7 @@
       <c r="E107" s="10"/>
       <c r="F107" s="188"/>
     </row>
-    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>533</v>
       </c>
@@ -9534,7 +9534,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="189"/>
     </row>
-    <row r="109" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>534</v>
       </c>
@@ -9550,7 +9550,7 @@
       <c r="E109" s="10"/>
       <c r="F109" s="190"/>
     </row>
-    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>535</v>
       </c>
@@ -9566,7 +9566,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="191"/>
     </row>
-    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>536</v>
       </c>
@@ -9582,7 +9582,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="192"/>
     </row>
-    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>537</v>
       </c>
@@ -9598,7 +9598,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="193"/>
     </row>
-    <row r="113" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>538</v>
       </c>
@@ -9614,7 +9614,7 @@
       <c r="E113" s="10"/>
       <c r="F113" s="194"/>
     </row>
-    <row r="114" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>539</v>
       </c>
@@ -9630,7 +9630,7 @@
       <c r="E114" s="10"/>
       <c r="F114" s="195"/>
     </row>
-    <row r="115" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>540</v>
       </c>
@@ -9646,7 +9646,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="196"/>
     </row>
-    <row r="116" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>541</v>
       </c>
@@ -9662,7 +9662,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="197"/>
     </row>
-    <row r="117" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>542</v>
       </c>
@@ -9678,7 +9678,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="198"/>
     </row>
-    <row r="118" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>543</v>
       </c>
@@ -9694,7 +9694,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="199"/>
     </row>
-    <row r="119" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>544</v>
       </c>
@@ -9710,7 +9710,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="200"/>
     </row>
-    <row r="120" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>545</v>
       </c>
@@ -9726,7 +9726,7 @@
       <c r="E120" s="10"/>
       <c r="F120" s="201"/>
     </row>
-    <row r="121" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>546</v>
       </c>
@@ -9742,7 +9742,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="202"/>
     </row>
-    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>547</v>
       </c>
@@ -9758,7 +9758,7 @@
       <c r="E122" s="10"/>
       <c r="F122" s="203"/>
     </row>
-    <row r="123" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>548</v>
       </c>
@@ -9774,7 +9774,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="204"/>
     </row>
-    <row r="124" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>549</v>
       </c>
@@ -9790,7 +9790,7 @@
       <c r="E124" s="10"/>
       <c r="F124" s="205"/>
     </row>
-    <row r="125" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>550</v>
       </c>
@@ -9806,7 +9806,7 @@
       <c r="E125" s="10"/>
       <c r="F125" s="206"/>
     </row>
-    <row r="126" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>551</v>
       </c>
@@ -9822,7 +9822,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="207"/>
     </row>
-    <row r="127" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>552</v>
       </c>
@@ -9838,7 +9838,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="208"/>
     </row>
-    <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>553</v>
       </c>
@@ -9854,7 +9854,7 @@
       <c r="E128" s="10"/>
       <c r="F128" s="209"/>
     </row>
-    <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>554</v>
       </c>
@@ -9870,7 +9870,7 @@
       <c r="E129" s="10"/>
       <c r="F129" s="210"/>
     </row>
-    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>555</v>
       </c>
@@ -9886,7 +9886,7 @@
       <c r="E130" s="10"/>
       <c r="F130" s="211"/>
     </row>
-    <row r="131" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>556</v>
       </c>
@@ -9902,7 +9902,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="212"/>
     </row>
-    <row r="132" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>557</v>
       </c>
@@ -9918,7 +9918,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="213"/>
     </row>
-    <row r="133" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>558</v>
       </c>
@@ -9934,7 +9934,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="214"/>
     </row>
-    <row r="134" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>559</v>
       </c>
@@ -9950,7 +9950,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="215"/>
     </row>
-    <row r="135" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>560</v>
       </c>
@@ -9966,7 +9966,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="216"/>
     </row>
-    <row r="136" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>561</v>
       </c>
@@ -9982,7 +9982,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="217"/>
     </row>
-    <row r="137" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>562</v>
       </c>
@@ -9998,7 +9998,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="218"/>
     </row>
-    <row r="138" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>563</v>
       </c>
@@ -10014,7 +10014,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="219"/>
     </row>
-    <row r="139" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>564</v>
       </c>
@@ -10030,7 +10030,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="220"/>
     </row>
-    <row r="140" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>565</v>
       </c>
@@ -10046,7 +10046,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="221"/>
     </row>
-    <row r="141" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>566</v>
       </c>
@@ -10062,7 +10062,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="222"/>
     </row>
-    <row r="142" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>567</v>
       </c>
@@ -10078,7 +10078,7 @@
       <c r="E142" s="9"/>
       <c r="F142" s="223"/>
     </row>
-    <row r="143" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>568</v>
       </c>
@@ -10094,7 +10094,7 @@
       <c r="E143" s="9"/>
       <c r="F143" s="224"/>
     </row>
-    <row r="144" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>569</v>
       </c>
@@ -10110,7 +10110,7 @@
       <c r="E144" s="9"/>
       <c r="F144" s="225"/>
     </row>
-    <row r="145" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>570</v>
       </c>
@@ -10126,7 +10126,7 @@
       <c r="E145" s="9"/>
       <c r="F145" s="226"/>
     </row>
-    <row r="146" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>571</v>
       </c>
@@ -10142,7 +10142,7 @@
       <c r="E146" s="9"/>
       <c r="F146" s="227"/>
     </row>
-    <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>572</v>
       </c>
@@ -10158,7 +10158,7 @@
       <c r="E147" s="9"/>
       <c r="F147" s="228"/>
     </row>
-    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>573</v>
       </c>
@@ -10174,7 +10174,7 @@
       <c r="E148" s="9"/>
       <c r="F148" s="229"/>
     </row>
-    <row r="149" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>574</v>
       </c>
@@ -10190,7 +10190,7 @@
       <c r="E149" s="9"/>
       <c r="F149" s="230"/>
     </row>
-    <row r="150" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>575</v>
       </c>
@@ -10206,7 +10206,7 @@
       <c r="E150" s="9"/>
       <c r="F150" s="231"/>
     </row>
-    <row r="151" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>576</v>
       </c>
@@ -10222,7 +10222,7 @@
       <c r="E151" s="9"/>
       <c r="F151" s="232"/>
     </row>
-    <row r="152" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>577</v>
       </c>
@@ -10238,7 +10238,7 @@
       <c r="E152" s="9"/>
       <c r="F152" s="233"/>
     </row>
-    <row r="153" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>578</v>
       </c>
@@ -10254,7 +10254,7 @@
       <c r="E153" s="9"/>
       <c r="F153" s="234"/>
     </row>
-    <row r="154" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>579</v>
       </c>
@@ -10270,7 +10270,7 @@
       <c r="E154" s="9"/>
       <c r="F154" s="235"/>
     </row>
-    <row r="155" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>580</v>
       </c>
@@ -10286,7 +10286,7 @@
       <c r="E155" s="9"/>
       <c r="F155" s="236"/>
     </row>
-    <row r="156" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>581</v>
       </c>
@@ -10302,7 +10302,7 @@
       <c r="E156" s="9"/>
       <c r="F156" s="237"/>
     </row>
-    <row r="157" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>582</v>
       </c>
@@ -10318,7 +10318,7 @@
       <c r="E157" s="9"/>
       <c r="F157" s="238"/>
     </row>
-    <row r="158" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>583</v>
       </c>
@@ -10334,7 +10334,7 @@
       <c r="E158" s="9"/>
       <c r="F158" s="239"/>
     </row>
-    <row r="159" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>584</v>
       </c>
@@ -10350,7 +10350,7 @@
       <c r="E159" s="9"/>
       <c r="F159" s="240"/>
     </row>
-    <row r="160" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>585</v>
       </c>
@@ -10366,7 +10366,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="241"/>
     </row>
-    <row r="161" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>586</v>
       </c>
@@ -10382,7 +10382,7 @@
       <c r="E161" s="9"/>
       <c r="F161" s="242"/>
     </row>
-    <row r="162" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>587</v>
       </c>
@@ -10398,7 +10398,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="243"/>
     </row>
-    <row r="163" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>588</v>
       </c>
@@ -10414,7 +10414,7 @@
       <c r="E163" s="9"/>
       <c r="F163" s="244"/>
     </row>
-    <row r="164" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>589</v>
       </c>
@@ -10430,7 +10430,7 @@
       <c r="E164" s="9"/>
       <c r="F164" s="245"/>
     </row>
-    <row r="165" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>590</v>
       </c>
@@ -10446,7 +10446,7 @@
       <c r="E165" s="9"/>
       <c r="F165" s="246"/>
     </row>
-    <row r="166" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>591</v>
       </c>
@@ -10462,7 +10462,7 @@
       <c r="E166" s="9"/>
       <c r="F166" s="247"/>
     </row>
-    <row r="167" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>592</v>
       </c>
@@ -10478,7 +10478,7 @@
       <c r="E167" s="9"/>
       <c r="F167" s="248"/>
     </row>
-    <row r="168" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>593</v>
       </c>
@@ -10494,7 +10494,7 @@
       <c r="E168" s="9"/>
       <c r="F168" s="249"/>
     </row>
-    <row r="169" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>594</v>
       </c>
@@ -10510,7 +10510,7 @@
       <c r="E169" s="9"/>
       <c r="F169" s="250"/>
     </row>
-    <row r="170" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>595</v>
       </c>
@@ -10526,7 +10526,7 @@
       <c r="E170" s="9"/>
       <c r="F170" s="251"/>
     </row>
-    <row r="171" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>596</v>
       </c>
@@ -10542,7 +10542,7 @@
       <c r="E171" s="9"/>
       <c r="F171" s="252"/>
     </row>
-    <row r="172" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>597</v>
       </c>
@@ -10558,7 +10558,7 @@
       <c r="E172" s="9"/>
       <c r="F172" s="253"/>
     </row>
-    <row r="173" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>598</v>
       </c>
@@ -10574,7 +10574,7 @@
       <c r="E173" s="9"/>
       <c r="F173" s="254"/>
     </row>
-    <row r="174" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>599</v>
       </c>
@@ -10590,7 +10590,7 @@
       <c r="E174" s="9"/>
       <c r="F174" s="255"/>
     </row>
-    <row r="175" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>600</v>
       </c>
@@ -10606,7 +10606,7 @@
       <c r="E175" s="9"/>
       <c r="F175" s="256"/>
     </row>
-    <row r="176" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>601</v>
       </c>
@@ -10638,11 +10638,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="50.375" style="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.375" style="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.125" style="11" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.875" style="258" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="50.42578125" style="11" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.140625" style="11" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" style="260" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -10661,7 +10661,7 @@
       <c r="E1" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="259" t="s">
+      <c r="F1" s="258" t="s">
         <v>285</v>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
         <v>423</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="260"/>
+      <c r="F2" s="259"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10696,7 +10696,7 @@
         <v>423</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="260"/>
+      <c r="F3" s="259"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10713,7 +10713,7 @@
         <v>424</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="260"/>
+      <c r="F4" s="259"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10730,7 +10730,7 @@
         <v>424</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="260"/>
+      <c r="F5" s="259"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10747,7 +10747,7 @@
         <v>425</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="260"/>
+      <c r="F6" s="259"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10758,13 +10758,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>425</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="260"/>
+      <c r="F7" s="259"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10775,13 +10775,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>425</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="260"/>
+      <c r="F8" s="259"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10798,7 +10798,7 @@
         <v>425</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="260"/>
+      <c r="F9" s="259"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10815,7 +10815,7 @@
         <v>425</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="260"/>
+      <c r="F10" s="259"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10832,7 +10832,7 @@
         <v>426</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="260"/>
+      <c r="F11" s="259"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10849,7 +10849,7 @@
         <v>426</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="260"/>
+      <c r="F12" s="259"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10866,7 +10866,7 @@
         <v>426</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="260"/>
+      <c r="F13" s="259"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10883,7 +10883,7 @@
         <v>426</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="260"/>
+      <c r="F14" s="259"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10900,7 +10900,7 @@
         <v>424</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="260"/>
+      <c r="F15" s="259"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10917,7 +10917,7 @@
         <v>423</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="260"/>
+      <c r="F16" s="259"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10934,7 +10934,7 @@
         <v>426</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="260"/>
+      <c r="F17" s="259"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10951,7 +10951,7 @@
         <v>425</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="260"/>
+      <c r="F18" s="259"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10968,7 +10968,7 @@
         <v>426</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="260"/>
+      <c r="F19" s="259"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -10985,7 +10985,7 @@
         <v>423</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="260"/>
+      <c r="F20" s="259"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11002,7 +11002,7 @@
         <v>423</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="260"/>
+      <c r="F21" s="259"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11019,7 +11019,7 @@
         <v>423</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="260"/>
+      <c r="F22" s="259"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11036,7 +11036,7 @@
         <v>423</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="260"/>
+      <c r="F23" s="259"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11053,7 +11053,7 @@
         <v>424</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="260"/>
+      <c r="F24" s="259"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11070,7 +11070,7 @@
         <v>423</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="260"/>
+      <c r="F25" s="259"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11087,7 +11087,7 @@
         <v>426</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="260"/>
+      <c r="F26" s="259"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11104,7 +11104,7 @@
         <v>425</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="260"/>
+      <c r="F27" s="259"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11121,7 +11121,7 @@
         <v>426</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="260"/>
+      <c r="F28" s="259"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11138,7 +11138,7 @@
         <v>425</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="260"/>
+      <c r="F29" s="259"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11155,7 +11155,7 @@
         <v>426</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="260"/>
+      <c r="F30" s="259"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11172,7 +11172,7 @@
         <v>423</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="260"/>
+      <c r="F31" s="259"/>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11189,7 +11189,7 @@
         <v>425</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="260"/>
+      <c r="F32" s="259"/>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11206,7 +11206,7 @@
         <v>426</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="260"/>
+      <c r="F33" s="259"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11223,7 +11223,7 @@
         <v>424</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="260"/>
+      <c r="F34" s="259"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11240,7 +11240,7 @@
         <v>424</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="260"/>
+      <c r="F35" s="259"/>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -11257,7 +11257,7 @@
         <v>424</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="260"/>
+      <c r="F36" s="259"/>
       <c r="G36" s="6"/>
     </row>
   </sheetData>
